--- a/MyTemperature.xlsx
+++ b/MyTemperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchi/Documents/Study/MyGitProject/Covid19TemperatureRecording/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB13B29-1E37-BD49-9DC7-0420C10F6A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A41E5-474D-644B-95AE-B2062BC1310D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,6 +111,908 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>体温</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>时间折线图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.22 20:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8463-854A-863B-0C190D926944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="941985967"/>
+        <c:axId val="941720031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="941985967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941720031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="941720031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941985967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1C8BAD-665F-B44C-8E81-16848EEA2CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +1281,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,6 +1309,9 @@
       <c r="B2">
         <v>36</v>
       </c>
+      <c r="C2">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -422,5 +1327,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyTemperature.xlsx
+++ b/MyTemperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchi/Documents/Study/MyGitProject/Covid19TemperatureRecording/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A41E5-474D-644B-95AE-B2062BC1310D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E946C8-A7C6-584B-B33E-D60A36246E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.22 20:00</t>
+    <t>正式确诊，头昏沉，轻度发热</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正式确诊，头昏沉，轻度发热</t>
+    <t>很怕冷，站起来就头疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1 22:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,29 +237,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$AL$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.21</c:v>
+                  <c:v>D0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.22 20:00</c:v>
+                  <c:v>D1 20:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D1 22:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$AL$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,15 +996,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1278,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,20 +1307,24 @@
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>12.21</v>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1312,8 +1334,11 @@
       <c r="C2">
         <v>37.9</v>
       </c>
+      <c r="D2">
+        <v>37.700000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1321,6 +1346,9 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/MyTemperature.xlsx
+++ b/MyTemperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchi/Documents/Study/MyGitProject/Covid19TemperatureRecording/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E946C8-A7C6-584B-B33E-D60A36246E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93F7827-3A12-B44B-A1CB-764F66A6DE25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,26 @@
   </si>
   <si>
     <t>D1 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2 1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃布洛芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很怕热，出了一些汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2 7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点怕冷，头疼加剧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +259,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$1:$AL$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>D0</c:v>
                 </c:pt>
@@ -248,6 +268,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>D1 22:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2 1:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D2 7:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,6 +291,12 @@
                   <c:v>37.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1296,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,9 +1340,10 @@
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1356,14 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1337,8 +1376,14 @@
       <c r="D2">
         <v>37.700000000000003</v>
       </c>
+      <c r="E2">
+        <v>37.1</v>
+      </c>
+      <c r="F2">
+        <v>37.700000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1350,6 +1395,17 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyTemperature.xlsx
+++ b/MyTemperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchi/Documents/Study/MyGitProject/Covid19TemperatureRecording/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93F7827-3A12-B44B-A1CB-764F66A6DE25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D99238-18A7-6243-8CBB-791404635BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>有点怕冷，头疼加剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2 9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2 10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发热，怕冷，出汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2 11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发热，出汗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +283,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$1:$AL$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>D0</c:v>
                 </c:pt>
@@ -274,6 +298,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>D2 7:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D2 9:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>D2 10:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>D2 11:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -298,6 +331,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,10 +1382,12 @@
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1362,8 +1406,17 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1382,8 +1435,17 @@
       <c r="F2">
         <v>37.700000000000003</v>
       </c>
+      <c r="G2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H2">
+        <v>38.5</v>
+      </c>
+      <c r="I2">
+        <v>38.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1402,9 +1464,21 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
